--- a/public/import/user_template.xlsx
+++ b/public/import/user_template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10512"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/apriansyahrs/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{782FAB4C-99DE-45C0-86B9-D337E15531C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B32712A5-8ECB-7142-BA63-A4F2A78F9CC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -24,6 +24,8 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -31,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
   <si>
     <t>nama_lengkap</t>
   </si>
@@ -60,42 +62,39 @@
     <t>password</t>
   </si>
   <si>
-    <t>CV.TOP</t>
-  </si>
-  <si>
-    <t>REALME</t>
-  </si>
-  <si>
-    <t>ANDIWIRA</t>
-  </si>
-  <si>
-    <t>Budi Kurniawan</t>
-  </si>
-  <si>
-    <t>budikurniawan</t>
-  </si>
-  <si>
-    <t>ASC</t>
-  </si>
-  <si>
-    <t>BIGKARAWANG</t>
-  </si>
-  <si>
-    <t>KRW1</t>
-  </si>
-  <si>
-    <t>budik123</t>
+    <t>Eko Setiawan</t>
+  </si>
+  <si>
+    <t>complete123</t>
+  </si>
+  <si>
+    <t>ekosetiawan</t>
+  </si>
+  <si>
+    <t>ASM</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>DEDE SUPRIYATNO</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -118,8 +117,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -424,20 +424,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" activeCellId="1" sqref="I3 H10"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="21.7109375" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" customWidth="1"/>
-    <col min="8" max="8" width="15.140625" customWidth="1"/>
+    <col min="1" max="1" width="20.33203125" customWidth="1"/>
+    <col min="2" max="2" width="18.5" customWidth="1"/>
+    <col min="3" max="3" width="14.1640625" customWidth="1"/>
+    <col min="4" max="4" width="17.6640625" customWidth="1"/>
+    <col min="5" max="5" width="15.83203125" customWidth="1"/>
+    <col min="6" max="6" width="15.33203125" customWidth="1"/>
+    <col min="7" max="7" width="14.1640625" customWidth="1"/>
+    <col min="8" max="8" width="16.83203125" customWidth="1"/>
+    <col min="9" max="9" width="23.5" customWidth="1"/>
+    <col min="10" max="10" width="8.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -466,37 +473,66 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B2" t="s">
+      <c r="D2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" t="s">
         <v>14</v>
       </c>
-      <c r="D2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="I2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I2" t="s">
-        <v>17</v>
-      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait"/>
 </worksheet>
 </file>
--- a/public/import/user_template.xlsx
+++ b/public/import/user_template.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10512"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10609"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/apriansyahrs/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B32712A5-8ECB-7142-BA63-A4F2A78F9CC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45D58764-B26C-404D-BC2B-C46BAC59BBD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>nama_lengkap</t>
   </si>
@@ -62,29 +62,38 @@
     <t>password</t>
   </si>
   <si>
-    <t>Eko Setiawan</t>
+    <t>CV.TOP</t>
+  </si>
+  <si>
+    <t>ORAIMO</t>
   </si>
   <si>
     <t>complete123</t>
   </si>
   <si>
-    <t>ekosetiawan</t>
-  </si>
-  <si>
-    <t>ASM</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>DEDE SUPRIYATNO</t>
+    <t>DSF / DM</t>
+  </si>
+  <si>
+    <t>ADI SUHADI</t>
+  </si>
+  <si>
+    <t>Aditria Prabowo</t>
+  </si>
+  <si>
+    <t>aditriap</t>
+  </si>
+  <si>
+    <t>JABAR2</t>
+  </si>
+  <si>
+    <t>BANDUNGKOTA</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -93,6 +102,11 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -424,24 +438,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.33203125" customWidth="1"/>
-    <col min="2" max="2" width="18.5" customWidth="1"/>
-    <col min="3" max="3" width="14.1640625" customWidth="1"/>
-    <col min="4" max="4" width="17.6640625" customWidth="1"/>
-    <col min="5" max="5" width="15.83203125" customWidth="1"/>
-    <col min="6" max="6" width="15.33203125" customWidth="1"/>
-    <col min="7" max="7" width="14.1640625" customWidth="1"/>
-    <col min="8" max="8" width="16.83203125" customWidth="1"/>
-    <col min="9" max="9" width="23.5" customWidth="1"/>
-    <col min="10" max="10" width="8.83203125" customWidth="1"/>
+    <col min="1" max="1" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
@@ -475,63 +488,51 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" t="s">
         <v>9</v>
       </c>
-      <c r="B2" t="s">
+      <c r="E2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I2" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" s="1"/>
       <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
+      <c r="G3" s="1"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" s="1"/>
       <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" s="1"/>
       <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="H5" s="1"/>
       <c r="I5" s="1"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
 </worksheet>

--- a/public/import/user_template.xlsx
+++ b/public/import/user_template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/apriansyahrs/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45D58764-B26C-404D-BC2B-C46BAC59BBD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD1699AB-592D-3A41-A43D-9C98BA477148}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -62,31 +62,31 @@
     <t>password</t>
   </si>
   <si>
+    <t>complete123</t>
+  </si>
+  <si>
+    <t>DSF / DM</t>
+  </si>
+  <si>
+    <t>Ricky Yantoro</t>
+  </si>
+  <si>
+    <t>ricky</t>
+  </si>
+  <si>
     <t>CV.TOP</t>
   </si>
   <si>
     <t>ORAIMO</t>
   </si>
   <si>
-    <t>complete123</t>
-  </si>
-  <si>
-    <t>DSF / DM</t>
-  </si>
-  <si>
-    <t>ADI SUHADI</t>
-  </si>
-  <si>
-    <t>Aditria Prabowo</t>
-  </si>
-  <si>
-    <t>aditriap</t>
-  </si>
-  <si>
-    <t>JABAR2</t>
-  </si>
-  <si>
-    <t>BANDUNGKOTA</t>
+    <t>Jakarta</t>
+  </si>
+  <si>
+    <t>Adi Suhadi</t>
+  </si>
+  <si>
+    <t>JABO1</t>
   </si>
 </sst>
 </file>
@@ -441,7 +441,7 @@
   <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -488,31 +488,31 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="F2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="H2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="E2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">

--- a/public/import/user_template.xlsx
+++ b/public/import/user_template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/apriansyahrs/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD1699AB-592D-3A41-A43D-9C98BA477148}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2B2A27A-519A-6D49-BDAC-295770A97121}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -68,25 +68,25 @@
     <t>DSF / DM</t>
   </si>
   <si>
-    <t>Ricky Yantoro</t>
-  </si>
-  <si>
-    <t>ricky</t>
-  </si>
-  <si>
     <t>CV.TOP</t>
   </si>
   <si>
     <t>ORAIMO</t>
   </si>
   <si>
-    <t>Jakarta</t>
-  </si>
-  <si>
     <t>Adi Suhadi</t>
   </si>
   <si>
-    <t>JABO1</t>
+    <t>Waydy Judius Bong</t>
+  </si>
+  <si>
+    <t>waydy</t>
+  </si>
+  <si>
+    <t>BANDUNGKOTA</t>
+  </si>
+  <si>
+    <t>JABAR2</t>
   </si>
 </sst>
 </file>
@@ -441,7 +441,7 @@
   <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -488,28 +488,28 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C2" t="s">
         <v>10</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>17</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>9</v>

--- a/public/import/user_template.xlsx
+++ b/public/import/user_template.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10609"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11110"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/apriansyahrs/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2B2A27A-519A-6D49-BDAC-295770A97121}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCCA31D3-EAC3-7844-8645-D1BED0D84F88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="43">
   <si>
     <t>nama_lengkap</t>
   </si>
@@ -62,31 +62,106 @@
     <t>password</t>
   </si>
   <si>
+    <t>DSF/DM</t>
+  </si>
+  <si>
+    <t>CV.TOP</t>
+  </si>
+  <si>
     <t>complete123</t>
   </si>
   <si>
-    <t>DSF / DM</t>
-  </si>
-  <si>
-    <t>CV.TOP</t>
-  </si>
-  <si>
-    <t>ORAIMO</t>
-  </si>
-  <si>
-    <t>Adi Suhadi</t>
-  </si>
-  <si>
-    <t>Waydy Judius Bong</t>
-  </si>
-  <si>
-    <t>waydy</t>
-  </si>
-  <si>
-    <t>BANDUNGKOTA</t>
-  </si>
-  <si>
-    <t>JABAR2</t>
+    <t>LELY ROSYAN</t>
+  </si>
+  <si>
+    <t>TITUS ANDI</t>
+  </si>
+  <si>
+    <t>ERWIN CHRISTIANTO</t>
+  </si>
+  <si>
+    <t>ADAM CAHYADI</t>
+  </si>
+  <si>
+    <t>LUQMAN IQBAL AL MUBARAK</t>
+  </si>
+  <si>
+    <t>HERU</t>
+  </si>
+  <si>
+    <t>ISMAIL NUR ADJIE</t>
+  </si>
+  <si>
+    <t>EKO PRAST</t>
+  </si>
+  <si>
+    <t>ANDIWIRA</t>
+  </si>
+  <si>
+    <t>lelyrosyan</t>
+  </si>
+  <si>
+    <t>titusandi</t>
+  </si>
+  <si>
+    <t>erwinchristianto</t>
+  </si>
+  <si>
+    <t>adamcahyadi</t>
+  </si>
+  <si>
+    <t>luqmaniqbalalmubarak</t>
+  </si>
+  <si>
+    <t>heru</t>
+  </si>
+  <si>
+    <t>ismailnuradjie</t>
+  </si>
+  <si>
+    <t>REALME</t>
+  </si>
+  <si>
+    <t>ZTE</t>
+  </si>
+  <si>
+    <t>BIG JOGJA</t>
+  </si>
+  <si>
+    <t>JGJASC1</t>
+  </si>
+  <si>
+    <t>SMGTELE1</t>
+  </si>
+  <si>
+    <t>BDGASC1</t>
+  </si>
+  <si>
+    <t>BDGASC3</t>
+  </si>
+  <si>
+    <t>ZTEJGJ1</t>
+  </si>
+  <si>
+    <t>ZTESMG3</t>
+  </si>
+  <si>
+    <t>ZTESLO1</t>
+  </si>
+  <si>
+    <t>CV.MAJU</t>
+  </si>
+  <si>
+    <t>BIGSEMARANG</t>
+  </si>
+  <si>
+    <t>BIGBANDUNG</t>
+  </si>
+  <si>
+    <t>BIGJOGJA</t>
+  </si>
+  <si>
+    <t>BIGSOLO</t>
   </si>
 </sst>
 </file>
@@ -131,9 +206,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -438,97 +520,256 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.1640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.1640625" customWidth="1"/>
+    <col min="6" max="6" width="12.33203125" customWidth="1"/>
+    <col min="7" max="7" width="15.5" customWidth="1"/>
+    <col min="8" max="8" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="A2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2" s="2" t="s">
         <v>11</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
+      <c r="A3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
+      <c r="A4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B5" s="1"/>
-      <c r="I5" s="1"/>
+      <c r="A5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
